--- a/biology/Médecine/Indice_de_Hausner/Indice_de_Hausner.xlsx
+++ b/biology/Médecine/Indice_de_Hausner/Indice_de_Hausner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indice de Hausner est une grandeur physique sans dimension qui caractérise l'aptitude à l'écoulement d'une poudre ou d'un matériau granulaire.
-Cet indice a été défini par le métallurgiste des poudres autrichien Henry H. Hausner (1900-1995)[1],[2]. 
+Cet indice a été défini par le métallurgiste des poudres autrichien Henry H. Hausner (1900-1995),. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Détermination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indice de Hausner est égal au rapport de la masse volumique tassée sur la masse volumique apparente ou comme le rapport du volume apparent  sur le volume tassé :
         H
@@ -578,10 +592,12 @@
           <t>Interprétation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un indice de Hausner supérieur à 1,2 est considéré comme une indication d'un mauvais écoulement mais d'une bonne compressibilité et d'une bonne cohésion. Les vibrations peuvent facilement tasser la poudre pendant le transport par exemple. 
-Un indice de Hausner inférieur à 1,2 est considéré comme une indication d'un bon écoulement mais d'une faible compressibilité et d'une faible cohésion[3].
+Un indice de Hausner inférieur à 1,2 est considéré comme une indication d'un bon écoulement mais d'une faible compressibilité et d'une faible cohésion.
 </t>
         </is>
       </c>
@@ -610,7 +626,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indice de Hausner est généralement utilisée en pharmacie galénique, en agroalimentaire, en bâtiment et travaux publics et en métallurgie des poudres.
 </t>
